--- a/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
+++ b/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -236,6 +236,17 @@
   </si>
   <si>
     <t>GPSカメラアプリーQ&amp;A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chức năng GIM ảnh ở đây là như nào, hiển thị vùng xung quanh địa điểm GIM hay nó tự Draw lên Maps luôn và Click vào để hiển thi thôi.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バク</t>
+  </si>
+  <si>
+    <t>Upload ảnh lên GooglePhotos là dùng cái nào có thể gợi ý được không?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,7 +613,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,7 +651,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -947,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1598,54 +1618,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <v>42250</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1654,23 +1674,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="43"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1732,17 +1752,17 @@
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="48"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -1755,7 +1775,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -1774,7 +1794,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="48"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -1793,7 +1813,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="48"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -1812,7 +1832,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
@@ -1831,7 +1851,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
@@ -1848,14 +1868,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -1869,6 +1881,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -1888,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1946,13 +1966,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="49"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -1967,9 +1991,13 @@
       <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="50"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27"/>
@@ -1984,9 +2012,9 @@
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
       <c r="G4" s="27"/>
@@ -2001,9 +2029,9 @@
       <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
       <c r="G5" s="27"/>
@@ -2018,9 +2046,9 @@
       <c r="A6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="27"/>
@@ -2035,9 +2063,9 @@
       <c r="A7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
       <c r="G7" s="27"/>
@@ -2052,9 +2080,9 @@
       <c r="A8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="27"/>
@@ -2069,9 +2097,9 @@
       <c r="A9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
@@ -2086,9 +2114,9 @@
       <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -2103,9 +2131,9 @@
       <c r="A11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="27"/>
@@ -2120,9 +2148,9 @@
       <c r="A12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
@@ -2137,9 +2165,9 @@
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
@@ -2154,9 +2182,9 @@
       <c r="A14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -2171,9 +2199,9 @@
       <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
@@ -2188,9 +2216,9 @@
       <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
@@ -2205,9 +2233,9 @@
       <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
       <c r="G17" s="27"/>
@@ -2222,9 +2250,9 @@
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
@@ -2239,9 +2267,9 @@
       <c r="A19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
@@ -2256,9 +2284,9 @@
       <c r="A20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
@@ -2273,9 +2301,9 @@
       <c r="A21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -2290,9 +2318,9 @@
       <c r="A22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
@@ -2307,9 +2335,9 @@
       <c r="A23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
@@ -2324,9 +2352,9 @@
       <c r="A24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
@@ -2341,9 +2369,9 @@
       <c r="A25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
       <c r="G25" s="27"/>
@@ -2358,9 +2386,9 @@
       <c r="A26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
@@ -2375,9 +2403,9 @@
       <c r="A27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
@@ -2392,9 +2420,9 @@
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
@@ -2409,9 +2437,9 @@
       <c r="A29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
@@ -2426,9 +2454,9 @@
       <c r="A30" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
@@ -2443,9 +2471,9 @@
       <c r="A31" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>

--- a/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
+++ b/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>Upload ảnh lên GooglePhotos là dùng cái nào có thể gợi ý được không?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cái MAP SDK là cái gì, giải thích…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -613,7 +617,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +635,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,15 +663,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1618,54 +1622,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="46">
         <v>42250</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1674,23 +1678,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="45"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1752,17 +1756,17 @@
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="50"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -1775,13 +1779,13 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -1794,13 +1798,13 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -1813,13 +1817,13 @@
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
@@ -1832,13 +1836,13 @@
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="6"/>
@@ -1851,13 +1855,13 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="6"/>
@@ -1868,6 +1872,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -1881,14 +1893,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -1909,7 +1913,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1970,13 +1974,13 @@
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -1991,13 +1995,13 @@
       <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27"/>
@@ -2012,9 +2016,11 @@
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
       <c r="G4" s="27"/>
@@ -2029,9 +2035,9 @@
       <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="50"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
       <c r="G5" s="27"/>
@@ -2046,9 +2052,9 @@
       <c r="A6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="27"/>
@@ -2063,9 +2069,9 @@
       <c r="A7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
       <c r="G7" s="27"/>
@@ -2080,9 +2086,9 @@
       <c r="A8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="50"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="27"/>
@@ -2097,9 +2103,9 @@
       <c r="A9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
@@ -2114,9 +2120,9 @@
       <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -2131,9 +2137,9 @@
       <c r="A11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="27"/>
@@ -2148,9 +2154,9 @@
       <c r="A12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
@@ -2165,9 +2171,9 @@
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
@@ -2182,9 +2188,9 @@
       <c r="A14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -2199,9 +2205,9 @@
       <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
@@ -2216,9 +2222,9 @@
       <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
@@ -2233,9 +2239,9 @@
       <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
       <c r="G17" s="27"/>
@@ -2250,9 +2256,9 @@
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
@@ -2267,9 +2273,9 @@
       <c r="A19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
@@ -2284,9 +2290,9 @@
       <c r="A20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="50"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
@@ -2301,9 +2307,9 @@
       <c r="A21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -2318,9 +2324,9 @@
       <c r="A22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
@@ -2335,9 +2341,9 @@
       <c r="A23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
@@ -2352,9 +2358,9 @@
       <c r="A24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
@@ -2369,9 +2375,9 @@
       <c r="A25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="50"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
       <c r="G25" s="27"/>
@@ -2386,9 +2392,9 @@
       <c r="A26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
@@ -2403,9 +2409,9 @@
       <c r="A27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
@@ -2420,9 +2426,9 @@
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
@@ -2437,9 +2443,9 @@
       <c r="A29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="50"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
@@ -2454,9 +2460,9 @@
       <c r="A30" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
@@ -2471,9 +2477,9 @@
       <c r="A31" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="51"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>

--- a/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
+++ b/001_GPSCamera_Document/007＿GPSカメラアプリ＿Q_A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>Upload ảnh lên GooglePhotos là dùng cái nào có thể gợi ý được không?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cái MAP SDK là cái gì, giải thích…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,16 +613,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,6 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,7 +651,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1622,54 +1618,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="44">
         <v>42250</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1678,23 +1674,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="43"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1756,17 +1752,17 @@
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="48" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="48"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -1779,13 +1775,13 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -1798,13 +1794,13 @@
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -1817,13 +1813,13 @@
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
@@ -1836,13 +1832,13 @@
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="6"/>
@@ -1855,13 +1851,13 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="6"/>
@@ -1872,14 +1868,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -1893,6 +1881,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -1913,7 +1909,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1974,13 +1970,13 @@
       <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -1995,13 +1991,13 @@
       <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27"/>
@@ -2016,11 +2012,9 @@
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="34"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
       <c r="G4" s="27"/>
@@ -2035,9 +2029,9 @@
       <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
       <c r="G5" s="27"/>
@@ -2052,9 +2046,9 @@
       <c r="A6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="27"/>
@@ -2069,9 +2063,9 @@
       <c r="A7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="34"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
       <c r="G7" s="27"/>
@@ -2086,9 +2080,9 @@
       <c r="A8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="27"/>
@@ -2103,9 +2097,9 @@
       <c r="A9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
@@ -2120,9 +2114,9 @@
       <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="34"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
@@ -2137,9 +2131,9 @@
       <c r="A11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="34"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="27"/>
@@ -2154,9 +2148,9 @@
       <c r="A12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="34"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="27"/>
@@ -2171,9 +2165,9 @@
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="27"/>
@@ -2188,9 +2182,9 @@
       <c r="A14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
@@ -2205,9 +2199,9 @@
       <c r="A15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="34"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
@@ -2222,9 +2216,9 @@
       <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="34"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
@@ -2239,9 +2233,9 @@
       <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="34"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
       <c r="G17" s="27"/>
@@ -2256,9 +2250,9 @@
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
@@ -2273,9 +2267,9 @@
       <c r="A19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
@@ -2290,9 +2284,9 @@
       <c r="A20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
@@ -2307,9 +2301,9 @@
       <c r="A21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -2324,9 +2318,9 @@
       <c r="A22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
@@ -2341,9 +2335,9 @@
       <c r="A23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
@@ -2358,9 +2352,9 @@
       <c r="A24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
@@ -2375,9 +2369,9 @@
       <c r="A25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
       <c r="G25" s="27"/>
@@ -2392,9 +2386,9 @@
       <c r="A26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
@@ -2409,9 +2403,9 @@
       <c r="A27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
@@ -2426,9 +2420,9 @@
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
@@ -2443,9 +2437,9 @@
       <c r="A29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
@@ -2460,9 +2454,9 @@
       <c r="A30" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
@@ -2477,9 +2471,9 @@
       <c r="A31" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
